--- a/IJC_UI/Empty.xlsx
+++ b/IJC_UI/Empty.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Pion" sheetId="3" r:id="rId1"/>
@@ -341,11 +341,11 @@
     <xf numFmtId="16" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -653,7 +653,7 @@
   </sheetPr>
   <dimension ref="B3:J56"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -671,14 +671,11 @@
   <sheetData>
     <row r="3" spans="2:10" ht="33" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="21" t="str">
-        <f>"3-10-2016"</f>
-        <v>3-10-2016</v>
-      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="21"/>
       <c r="F3" s="20"/>
       <c r="G3" s="4"/>
       <c r="H3" s="18"/>
@@ -1330,14 +1327,11 @@
   <sheetData>
     <row r="3" spans="2:10" ht="33" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="21" t="str">
-        <f>"3-10-2016"</f>
-        <v>3-10-2016</v>
-      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="21"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -1989,14 +1983,11 @@
   <sheetData>
     <row r="3" spans="2:10" ht="33" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="21" t="str">
-        <f>"3-10-2016"</f>
-        <v>3-10-2016</v>
-      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="21"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -2631,7 +2622,7 @@
   <dimension ref="B3:J56"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2648,14 +2639,11 @@
   <sheetData>
     <row r="3" spans="2:10" ht="33" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="21" t="str">
-        <f>"3-10-2016"</f>
-        <v>3-10-2016</v>
-      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="21"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -2798,7 +2786,7 @@
       <c r="B15" s="6"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="23"/>
+      <c r="E15" s="22"/>
       <c r="F15" s="14"/>
       <c r="G15" s="2"/>
       <c r="H15" s="10"/>
@@ -3307,14 +3295,11 @@
   <sheetData>
     <row r="3" spans="2:10" ht="33" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="21" t="str">
-        <f>"3-10-2016"</f>
-        <v>3-10-2016</v>
-      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="21"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -3966,14 +3951,11 @@
   <sheetData>
     <row r="3" spans="2:10" ht="33" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="21" t="str">
-        <f>"3-10-2016"</f>
-        <v>3-10-2016</v>
-      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="21"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -4607,7 +4589,7 @@
   </sheetPr>
   <dimension ref="B3:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -4625,14 +4607,11 @@
   <sheetData>
     <row r="3" spans="2:10" ht="33" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="21" t="str">
-        <f>"3-10-2016"</f>
-        <v>3-10-2016</v>
-      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="21"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>

--- a/IJC_UI/Empty.xlsx
+++ b/IJC_UI/Empty.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo\git\IJC_UI\IJC_UI\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Pion" sheetId="3" r:id="rId1"/>
@@ -25,7 +30,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Pion!$B$3:$J$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Toren!$B$3:$J$56</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -92,13 +97,13 @@
     <t>Periode X, Ronde X</t>
   </si>
   <si>
-    <t>Kloktijd 2x30 min. Trio 2x20 min.</t>
+    <t>Kloktijd 2x60 min. Trio 2x20 min.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -357,6 +362,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -404,7 +412,7 @@
     </a:clrScheme>
     <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -437,9 +445,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -472,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -653,7 +695,7 @@
   </sheetPr>
   <dimension ref="B3:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -1309,8 +1351,8 @@
   </sheetPr>
   <dimension ref="B3:J56"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1328,7 +1370,7 @@
     <row r="3" spans="2:10" ht="33" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
       <c r="C3" s="23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="21"/>
@@ -3968,7 +4010,7 @@
       <c r="B4" s="6"/>
       <c r="C4" s="7" t="str">
         <f>VLOOKUP(C3,Data!A2:B8,2,FALSE)</f>
-        <v>Kloktijd 2x30 min. Trio 2x20 min.</v>
+        <v>Kloktijd 2x60 min. Trio 2x20 min.</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
